--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -144,13 +144,103 @@
     <t>katraj</t>
   </si>
   <si>
-    <t>address[0].strit</t>
-  </si>
-  <si>
     <t>SB road</t>
   </si>
   <si>
     <t>navale brigde</t>
+  </si>
+  <si>
+    <t>filters_o1[filters1][0].id</t>
+  </si>
+  <si>
+    <t>filters_o1[filters1][0].type</t>
+  </si>
+  <si>
+    <t>filters_o1[filters1][1].id</t>
+  </si>
+  <si>
+    <t>filters_o1[filters1][1].type</t>
+  </si>
+  <si>
+    <t>filters_o1[filters2][0].id</t>
+  </si>
+  <si>
+    <t>filters_o1[filters2][0].type</t>
+  </si>
+  <si>
+    <t>filters_o1[filters2][1].id</t>
+  </si>
+  <si>
+    <t>filters_o1[filters2][1].type</t>
+  </si>
+  <si>
+    <t>filters_o2[filters2][0].id</t>
+  </si>
+  <si>
+    <t>filters_o2[filters2][0].type</t>
+  </si>
+  <si>
+    <t>{filter1_Settlement_Date}</t>
+  </si>
+  <si>
+    <t>type1</t>
+  </si>
+  <si>
+    <t>BETWEEN11</t>
+  </si>
+  <si>
+    <t>type11</t>
+  </si>
+  <si>
+    <t>2_BETWEEN11</t>
+  </si>
+  <si>
+    <t>2_type11</t>
+  </si>
+  <si>
+    <t>2_1_BETWEEN11</t>
+  </si>
+  <si>
+    <t>2_1_type11</t>
+  </si>
+  <si>
+    <t>o2_BETWEEN11</t>
+  </si>
+  <si>
+    <t>o2_type11</t>
+  </si>
+  <si>
+    <t>{filter2_Settlement_Date}</t>
+  </si>
+  <si>
+    <t>type2</t>
+  </si>
+  <si>
+    <t>BETWEEEN12</t>
+  </si>
+  <si>
+    <t>type22</t>
+  </si>
+  <si>
+    <t>2_BETWEEN12</t>
+  </si>
+  <si>
+    <t>2_type22</t>
+  </si>
+  <si>
+    <t>2_1_BETWEEN12</t>
+  </si>
+  <si>
+    <t>2_1_type22</t>
+  </si>
+  <si>
+    <t>o2_BETWEEN12</t>
+  </si>
+  <si>
+    <t>o2_type22</t>
+  </si>
+  <si>
+    <t>address[0].street</t>
   </si>
 </sst>
 </file>
@@ -180,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,22 +293,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -227,7 +306,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,11 +631,16 @@
     <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -615,14 +698,44 @@
       <c r="S1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>41</v>
+      <c r="U1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -680,14 +793,44 @@
       <c r="S2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>42</v>
+      <c r="U2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -745,11 +888,41 @@
       <c r="S3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>43</v>
+      <c r="U3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
